--- a/[Project]/SubwayPrediction/Result/Performance_KK.xlsx
+++ b/[Project]/SubwayPrediction/Result/Performance_KK.xlsx
@@ -1,48 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEBA]\Project-SubwayPrediction\Result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEBA]\[Project]\SubwayPrediction\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796D3823-47F1-4290-A41B-4E8B8BC3AA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB77F03B-495D-4C22-B93C-BE8B851B3F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24098" yWindow="-83" windowWidth="24196" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
-  <si>
-    <t>MSE</t>
-  </si>
-  <si>
-    <t>RMSE</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>MSPE</t>
   </si>
   <si>
-    <t>MAE</t>
-  </si>
-  <si>
     <t>MAPE</t>
-  </si>
-  <si>
-    <t>MedAE</t>
   </si>
   <si>
     <t>MedAPE</t>
@@ -73,7 +72,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Ranking</t>
+    <t>Dataset</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Train</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -81,7 +88,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,15 +110,6 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -121,27 +119,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -151,13 +134,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -438,333 +426,278 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36AB1676-1B67-4CE9-8120-E45403FAF6F2}">
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8:M8"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.08203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.08203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="E2" s="3">
+        <v>6.8599999999999994E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.78520000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3.8E-3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1.7670999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2.53E-2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>8.9399999999999993E-2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>6.0758999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2.1100000000000001E-2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>8.9700000000000002E-2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>6.6430999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3.8100000000000002E-2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.1147</v>
+      </c>
+      <c r="E7" s="3">
+        <v>8.8312000000000008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C8" s="3">
+        <v>0.71760000000000002</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.43359999999999999</v>
+      </c>
+      <c r="E8" s="3">
+        <v>30.812799999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="C9" s="3">
+        <v>5.0100000000000006E-2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5.3200000000000004E-2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.1734</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3">
+        <v>7.17E-2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>8.2400000000000001E-2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.59440000000000004</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>7.1300000000000002E-2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>8.3700000000000011E-2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.74269999999999992</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="C12" s="3">
+        <v>7.9100000000000004E-2</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.12340000000000001</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3.3908</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+      <c r="C13" s="3">
+        <v>8.2200000000000009E-2</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.1237</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3.4499999999999997</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2">
-        <v>6.9487180000000004</v>
-      </c>
-      <c r="C2" s="2">
-        <v>6.9487180000000004</v>
-      </c>
-      <c r="D2" s="2">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2">
-        <v>6.9487180000000004</v>
-      </c>
-      <c r="F2" s="2">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2">
-        <v>6.9487180000000004</v>
-      </c>
-      <c r="H2" s="2">
-        <v>6.9487180000000004</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="3">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="L2" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M2" s="3">
-        <v>0.17469999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1.74359</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1.74359</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1.1538459999999999</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="3">
-        <v>3.3999999999999998E-3</v>
-      </c>
-      <c r="L3" s="3">
-        <v>1.83E-2</v>
-      </c>
-      <c r="M3" s="3">
-        <v>0.89159999999999995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2">
-        <v>4.2307689999999996</v>
-      </c>
-      <c r="C4" s="2">
-        <v>4.2307689999999996</v>
-      </c>
-      <c r="D4" s="2">
-        <v>4.3846150000000002</v>
-      </c>
-      <c r="E4" s="2">
-        <v>4.2307689999999996</v>
-      </c>
-      <c r="F4" s="2">
-        <v>4.3333329999999997</v>
-      </c>
-      <c r="G4" s="2">
-        <v>4.3589739999999999</v>
-      </c>
-      <c r="H4" s="2">
-        <v>4.3076920000000003</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="3">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="L4" s="3">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="M4" s="3">
-        <v>2.3496999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2">
-        <v>4.820513</v>
-      </c>
-      <c r="C5" s="2">
-        <v>4.820513</v>
-      </c>
-      <c r="D5" s="2">
-        <v>4.6923079999999997</v>
-      </c>
-      <c r="E5" s="2">
-        <v>4.8461540000000003</v>
-      </c>
-      <c r="F5" s="2">
-        <v>4.7692310000000004</v>
-      </c>
-      <c r="G5" s="2">
-        <v>4.820513</v>
-      </c>
-      <c r="H5" s="2">
-        <v>4.8461540000000003</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="3">
-        <v>3.6799999999999999E-2</v>
-      </c>
-      <c r="L5" s="3">
-        <v>9.8599999999999993E-2</v>
-      </c>
-      <c r="M5" s="3">
-        <v>6.7502000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2">
-        <v>5.8974359999999999</v>
-      </c>
-      <c r="E6" s="2">
-        <v>5.9743589999999998</v>
-      </c>
-      <c r="F6" s="2">
-        <v>5.8974359999999999</v>
-      </c>
-      <c r="G6" s="2">
-        <v>5.8717949999999997</v>
-      </c>
-      <c r="H6" s="2">
-        <v>5.8974359999999999</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="3">
-        <v>5.8900000000000001E-2</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0.1082</v>
-      </c>
-      <c r="M6" s="3">
-        <v>7.3284000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1.3076920000000001</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1.3076920000000001</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1.8461540000000001</v>
-      </c>
-      <c r="E7" s="2">
-        <v>2</v>
-      </c>
-      <c r="F7" s="2">
-        <v>2</v>
-      </c>
-      <c r="G7" s="2">
-        <v>2</v>
-      </c>
-      <c r="H7" s="2">
-        <v>2</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0.20730000000000001</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0.16689999999999999</v>
-      </c>
-      <c r="M7" s="3">
-        <v>10.5298</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2">
-        <v>2.948718</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2.948718</v>
-      </c>
-      <c r="D8" s="2">
-        <v>3.0256409999999998</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="C14" s="3">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.14660000000000001</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4.7905000000000006</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="2">
-        <v>3</v>
-      </c>
-      <c r="G8" s="2">
-        <v>3</v>
-      </c>
-      <c r="H8" s="2">
-        <v>3</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1.4404999999999999</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0.48199999999999998</v>
-      </c>
-      <c r="M8" s="3">
-        <v>28.653500000000001</v>
-      </c>
+      <c r="C15" s="3">
+        <v>2.2465999999999999</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.60739999999999994</v>
+      </c>
+      <c r="E15" s="3">
+        <v>28.793700000000001</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A15"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
